--- a/Experiments/240311_C13/combined_sp_updated.xlsx
+++ b/Experiments/240311_C13/combined_sp_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28.0,</t>
+          <t>37.0,</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>51.0,</t>
+          <t>24.0,</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>55.5,</t>
+          <t>42.0,</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28.5,60.0,</t>
+          <t>18.25,56.75,</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20.0,45.0,60</t>
+          <t>60,60,60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.0,20.0,55.0,</t>
+          <t>20.0,20.0,50.0,</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>44.0749999999997,</t>
+          <t>44.5249999999997,</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>38.0,60.0</t>
+          <t>60,60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20.0,60.0,</t>
+          <t>19.0,29.0,</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25.0,60.0,</t>
+          <t>18.5,39.5,</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>36.0,60.0,</t>
+          <t>19.0,47.0,</t>
         </is>
       </c>
     </row>
@@ -936,18 +936,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>O1,O2</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
-      <c r="F16" t="n">
-        <v>38</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60,60</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26.0,</t>
+          <t>18.5,59.5,</t>
         </is>
       </c>
     </row>
@@ -980,7 +982,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30.0,60.0,</t>
+          <t>19.0,41.0,</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1013,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>45.5,</t>
+          <t>47.0,</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>53.0,30.0,</t>
+          <t>56.0,30.0,</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1172,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>52.0,</t>
+          <t>55.0,</t>
         </is>
       </c>
     </row>
@@ -1447,11 +1449,11 @@
         <v>1000</v>
       </c>
       <c r="F32" t="n">
-        <v>42.75</v>
+        <v>60</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>36.0,</t>
+          <t>33.0,</t>
         </is>
       </c>
     </row>
@@ -1551,71 +1553,69 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HEPES</t>
+          <t>succinate</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HEPES</t>
+          <t>succinate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A2,A3</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2000,2000</t>
-        </is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1459.7,2000.0,</t>
+          <t>50.0,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>mod3-1</t>
+          <t>HEPES</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>mod3-1</t>
+          <t>HEPES</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>100</v>
-      </c>
+          <t>A2,A3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2000,2000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>52.5,</t>
+          <t>533.0,2000.0,</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>mod3-shunt</t>
+          <t>rTCA</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>mod3-shunt</t>
+          <t>rTCA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1641,14 +1641,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>52.5,</t>
+          <t>45.0,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>mod3</t>
+          <t>rTCA_GS</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>mod3</t>
+          <t>rTCA_GS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H8</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1674,14 +1674,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>52.5,</t>
+          <t>45.0,</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sds</t>
+          <t>Pyc</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sds</t>
+          <t>Pyc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>H4</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1714,7 +1714,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>Pyc_GS</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>Pyc_GS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H10</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1740,7 +1740,271 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>45.0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Neg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Neg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>22.5,</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>sds</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>sds</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>52.5,</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>rTCA_20x</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>rTCA_20x</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>H13</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>45.0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>rTCA_GS_20x</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>rTCA_GS_20x</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>45.0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Pyc_20x</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pyc_20x</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>H15</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>45.0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pyc_GS_20x</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Pyc_GS_20x</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>H16</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>45.0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Neg_20x</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Neg_20x</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>H17</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>22.5,</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>sds_20x</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>sds_20x</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>H18</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>52.5,</t>
         </is>
       </c>
     </row>
